--- a/biology/Zoologie/Edgard_Hérouard/Edgard_Hérouard.xlsx
+++ b/biology/Zoologie/Edgard_Hérouard/Edgard_Hérouard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Edgard_H%C3%A9rouard</t>
+          <t>Edgard_Hérouard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edgard Joseph Émile Hérouard est un biologiste marin français, né le 18 mars 1858 à Saint-Quentin et mort le 17 mars 1932 à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Edgard_H%C3%A9rouard</t>
+          <t>Edgard_Hérouard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille, jeunesse et formation
-Son père est commerçant. Après des études à Saint-Quentin où il obtient son baccalauréat, il vient étudier à la faculté des sciences de Paris. Il y obtient sa licence des sciences (1885) et son doctorat (1890), sa thèse est intitulée Recherches sur les holothuries des côtes de France. Il étudie notamment auprès de Henri de Lacaze-Duthiers (1821-1901), Georges Pruvot (1852-1924), Joannès Charles Melchior Chatin (1847-1912) et Yves Delage (1854-1920).
-Carrière professionnelle
-Il commence sa carrière à la faculté des sciences où il est préparateur (1889), chef de travaux (1895) et maître de conférences (1899). En 1902, il devient sous-directeur de la Station biologique de Roscoff (1902). Il est maître de conférences à la faculté des sciences (1910), professeur adjoint (1910), chargé de cours (1919), professeur sans chaire (1921). Il part à la retraite en 1928. Il remplace brièvement Yves Delage en 1913.
-Hérouard participe à une expédition à bord du yacht Princesse Alice (1896). Il dirige la Société zoologique de France en 1904. Il reçoit, l’année précédente la Légion d’honneur.
-Hérouard meurt le 22 mars 1932 et est inhumé au columbarium du Père-Lachaise (case 5472).
+          <t>Famille, jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père est commerçant. Après des études à Saint-Quentin où il obtient son baccalauréat, il vient étudier à la faculté des sciences de Paris. Il y obtient sa licence des sciences (1885) et son doctorat (1890), sa thèse est intitulée Recherches sur les holothuries des côtes de France. Il étudie notamment auprès de Henri de Lacaze-Duthiers (1821-1901), Georges Pruvot (1852-1924), Joannès Charles Melchior Chatin (1847-1912) et Yves Delage (1854-1920).
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Edgard_H%C3%A9rouard</t>
+          <t>Edgard_Hérouard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vie privée</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il se marie avec Clémentine Chauvet, fille de pasteur.
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence sa carrière à la faculté des sciences où il est préparateur (1889), chef de travaux (1895) et maître de conférences (1899). En 1902, il devient sous-directeur de la Station biologique de Roscoff (1902). Il est maître de conférences à la faculté des sciences (1910), professeur adjoint (1910), chargé de cours (1919), professeur sans chaire (1921). Il part à la retraite en 1928. Il remplace brièvement Yves Delage en 1913.
+Hérouard participe à une expédition à bord du yacht Princesse Alice (1896). Il dirige la Société zoologique de France en 1904. Il reçoit, l’année précédente la Légion d’honneur.
+Hérouard meurt le 22 mars 1932 et est inhumé au columbarium du Père-Lachaise (case 5472).
 </t>
         </is>
       </c>
@@ -560,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Edgard_H%C3%A9rouard</t>
+          <t>Edgard_Hérouard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +596,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Liste partielle des publications</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1896-1901 : avec Yves Delage, Traité de zoologie concrète, huit volumes, Schleicher frères (Paris).</t>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se marie avec Clémentine Chauvet, fille de pasteur.
+</t>
         </is>
       </c>
     </row>
@@ -590,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Edgard_H%C3%A9rouard</t>
+          <t>Edgard_Hérouard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +629,44 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Liste partielle des publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1896-1901 : avec Yves Delage, Traité de zoologie concrète, huit volumes, Schleicher frères (Paris).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Edgard_Hérouard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Edgard_H%C3%A9rouard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Christophe Charle et Eva Telkes (1989). Les Professeurs de la Faculté des sciences de Paris. Dictionnaire biographique (1901-1939), Institut national de recherche pédagogique (Paris) et CNRS Éditions, collection Histoire biographique de l’Enseignement : 270 p.  (ISBN 2-222-04336-0)</t>
         </is>
